--- a/lineup_app/static/data_structure.xlsx
+++ b/lineup_app/static/data_structure.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="27555" windowHeight="14340"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
   <si>
     <t>session_json</t>
   </si>
@@ -111,9 +111,6 @@
     <t>af_gas</t>
   </si>
   <si>
-    <t>strems</t>
-  </si>
-  <si>
     <t>actuals</t>
   </si>
   <si>
@@ -316,6 +313,48 @@
   </si>
   <si>
     <t>pressure</t>
+  </si>
+  <si>
+    <t>streams</t>
+  </si>
+  <si>
+    <t>well_maps</t>
+  </si>
+  <si>
+    <t>well_details</t>
+  </si>
+  <si>
+    <t>setup page</t>
+  </si>
+  <si>
+    <t>GAP_setup</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>kpc_sep_pres</t>
+  </si>
+  <si>
+    <t>u2_sep_pres</t>
+  </si>
+  <si>
+    <t>u3_train1_sep_pres</t>
+  </si>
+  <si>
+    <t>u3_train2_sep_pres</t>
+  </si>
+  <si>
+    <t>u3_train3_sep_pres</t>
+  </si>
+  <si>
+    <t>u3_train4_sep_pres</t>
+  </si>
+  <si>
+    <t>GAP_results</t>
   </si>
 </sst>
 </file>
@@ -339,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +391,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -361,16 +406,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,563 +863,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="17"/>
+      <c r="D7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="17"/>
+      <c r="D8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E49" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E61" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E65" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E67" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E68" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E70" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E71" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E72" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E73" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E74" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E75" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E76" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E77" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E78" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E79" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E80" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E81" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E84" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E85" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E86" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E87" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E88" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E89" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E91" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E92" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E93" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C103" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E79" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E81" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E82" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E83" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E84" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E86" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E89" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E90" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E91" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E92" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>99</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1240,7 +1557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1252,7 +1569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lineup_app/static/data_structure.xlsx
+++ b/lineup_app/static/data_structure.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>session_json</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>GAP_results</t>
+  </si>
+  <si>
+    <t>well_data_byunit</t>
+  </si>
+  <si>
+    <t>list(well_data)</t>
   </si>
 </sst>
 </file>
@@ -539,18 +545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -562,6 +559,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,679 +869,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="17"/>
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="14"/>
+      <c r="D7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="17"/>
-      <c r="D8" s="19" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
-      <c r="D9" s="20" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="D9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="21" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="22" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="18" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="D32" s="3" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E35" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E36" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="3" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="3" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E46" s="1" t="s">
+    <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E47" s="1" t="s">
+    <row r="49" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E48" s="1" t="s">
+    <row r="50" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E49" s="1" t="s">
+    <row r="51" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E50" s="1" t="s">
+    <row r="52" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E51" s="1" t="s">
+    <row r="53" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E52" s="1" t="s">
+    <row r="54" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E53" s="1" t="s">
+    <row r="55" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E54" s="1" t="s">
+    <row r="56" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E55" s="1" t="s">
+    <row r="57" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E56" s="1" t="s">
+    <row r="58" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E57" s="1" t="s">
+    <row r="59" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E58" s="1" t="s">
+    <row r="60" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E59" s="1" t="s">
+    <row r="61" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E60" s="1" t="s">
+    <row r="62" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E61" s="1" t="s">
+    <row r="63" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E62" s="1" t="s">
+    <row r="64" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E63" s="1" t="s">
+    <row r="65" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E64" s="1" t="s">
+    <row r="66" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E65" s="1" t="s">
+    <row r="67" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E66" s="1" t="s">
+    <row r="68" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E67" s="1" t="s">
+    <row r="69" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E68" s="1" t="s">
+    <row r="70" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D69" s="3" t="s">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E70" s="4" t="s">
+    <row r="72" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E71" s="4" t="s">
+    <row r="73" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E72" s="4" t="s">
+    <row r="74" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E73" s="4" t="s">
+    <row r="75" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E74" s="4" t="s">
+    <row r="76" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E75" s="4" t="s">
+    <row r="77" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E76" s="4" t="s">
+    <row r="78" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E77" s="4" t="s">
+    <row r="79" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E78" s="4" t="s">
+    <row r="80" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E79" s="4" t="s">
+    <row r="81" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E81" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="4:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E80" s="4" t="s">
+    <row r="82" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E82" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E81" s="4" t="s">
+    <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E83" s="1" t="s">
+    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E84" s="1" t="s">
+    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E85" s="1" t="s">
+    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E86" s="1" t="s">
+    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E87" s="1" t="s">
+    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E88" s="1" t="s">
+    <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E89" s="1" t="s">
+    <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E90" s="1" t="s">
+    <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E91" s="1" t="s">
+    <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E92" s="1" t="s">
+    <row r="94" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E93" s="1" t="s">
+    <row r="95" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E95" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E94" s="1" t="s">
+    <row r="96" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E96" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="2" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C96" s="3" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D97" s="3" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="3" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="3" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="3" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D101" s="3" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="3" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C103" s="3" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="3" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D105" s="3" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D106" s="3" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D107" s="3" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D108" s="3" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D109" s="3" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D113" t="s">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D114" t="s">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D115" t="s">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D116" t="s">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D117" t="s">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1557,7 +1579,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1569,7 +1591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lineup_app/static/data_structure.xlsx
+++ b/lineup_app/static/data_structure.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="360" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>session_json</t>
   </si>
@@ -87,9 +87,6 @@
     <t>fb_data</t>
   </si>
   <si>
-    <t>from_wells</t>
-  </si>
-  <si>
     <t>gor</t>
   </si>
   <si>
@@ -361,6 +358,18 @@
   </si>
   <si>
     <t>list(well_data)</t>
+  </si>
+  <si>
+    <t>unit_totals</t>
+  </si>
+  <si>
+    <t>wells</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t># for app navigation to know if states were set or not</t>
   </si>
 </sst>
 </file>
@@ -869,10 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G119"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +914,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -927,13 +937,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,8 +956,7 @@
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="8"/>
@@ -955,9 +964,8 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="D9" s="17" t="s">
-        <v>90</v>
+      <c r="C9" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -971,7 +979,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,7 +990,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1028,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,18 +1060,18 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1088,7 +1096,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1128,7 +1136,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
@@ -1148,417 +1156,435 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E41" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E72" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E78" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E79" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E80" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E81" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C98" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D100" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D101" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D102" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D103" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D104" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D106" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D107" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D108" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D110" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>98</v>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1575,6 +1601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1587,6 +1614,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/lineup_app/static/data_structure.xlsx
+++ b/lineup_app/static/data_structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="720" yWindow="360" windowWidth="23250" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
   <si>
     <t>session_json</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Selected route</t>
   </si>
   <si>
-    <t>In opt</t>
-  </si>
-  <si>
     <t>Current route</t>
   </si>
   <si>
@@ -370,6 +367,39 @@
   </si>
   <si>
     <t># for app navigation to know if states were set or not</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>kpc_qwat_max</t>
+  </si>
+  <si>
+    <t>u3_qwat_max</t>
+  </si>
+  <si>
+    <t>u2_qwat_max</t>
+  </si>
+  <si>
+    <t>af_wat</t>
+  </si>
+  <si>
+    <t>qgas_max</t>
+  </si>
+  <si>
+    <t>(for rule based GAP optimization)</t>
+  </si>
+  <si>
+    <t>Qwater</t>
+  </si>
+  <si>
+    <t>WCT</t>
+  </si>
+  <si>
+    <t>qwater</t>
+  </si>
+  <si>
+    <t>wct</t>
   </si>
 </sst>
 </file>
@@ -542,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -568,6 +598,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,6 +608,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,10 +915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,8 +949,8 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="21" t="s">
-        <v>101</v>
+      <c r="G3" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,666 +960,745 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="21" t="s">
-        <v>100</v>
+      <c r="G6" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="14"/>
       <c r="D7" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="21" t="s">
-        <v>102</v>
+      <c r="G11" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="3" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="3" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="3" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="3" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+    <row r="58" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="1" t="s">
+    <row r="59" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="1" t="s">
+    <row r="60" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E50" s="1" t="s">
+    <row r="61" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E51" s="1" t="s">
+    <row r="62" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="1" t="s">
+    <row r="63" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E53" s="1" t="s">
+    <row r="64" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="1" t="s">
+    <row r="65" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E55" s="1" t="s">
+    <row r="66" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E56" s="1" t="s">
+    <row r="67" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E57" s="1" t="s">
+    <row r="68" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="s">
+    <row r="69" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="s">
+    <row r="70" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
+    <row r="71" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
+    <row r="72" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="s">
+    <row r="73" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="s">
+    <row r="74" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="s">
+    <row r="75" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="1" t="s">
+    <row r="76" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="1" t="s">
+    <row r="77" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E67" s="1" t="s">
+    <row r="78" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
+    <row r="79" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
+    <row r="80" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E72" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E73" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E74" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E78" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E79" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E80" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E81" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="82" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E83" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E85" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E86" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E88" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E89" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E90" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E91" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E92" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E93" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E94" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="95" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E96" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E98" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E99" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E100" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E104" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E106" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="3" t="s">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="3" t="s">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="3" t="s">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="3" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="3" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="3" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="3" t="s">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="3" t="s">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="3" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="3" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="3" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C122">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C135">
         <v>1</v>
       </c>
     </row>
@@ -1592,7 +1707,7 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G16:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lineup_app/static/data_structure.xlsx
+++ b/lineup_app/static/data_structure.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>session_json</t>
   </si>
@@ -87,12 +87,6 @@
     <t>gor</t>
   </si>
   <si>
-    <t>qoil_pot</t>
-  </si>
-  <si>
-    <t>qgas_pot</t>
-  </si>
-  <si>
     <t>mp_rs</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>unit_totals</t>
   </si>
   <si>
-    <t>wells</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -399,14 +390,23 @@
     <t>qwater</t>
   </si>
   <si>
-    <t>wct</t>
+    <t>qwat</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>measured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,8 +422,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +448,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -572,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -601,6 +613,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,9 +625,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +929,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,8 +963,8 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="22" t="s">
-        <v>100</v>
+      <c r="G3" s="23" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,26 +974,26 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="22" t="s">
-        <v>99</v>
+      <c r="G6" s="23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -989,7 +1003,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="16" t="s">
@@ -997,15 +1011,15 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
@@ -1015,7 +1029,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,8 +1039,8 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="22" t="s">
-        <v>101</v>
+      <c r="G11" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,7 +1050,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="18" t="s">
@@ -1045,7 +1059,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="20" t="s">
@@ -1054,11 +1068,11 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1072,8 +1086,8 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="22" t="s">
-        <v>110</v>
+      <c r="G16" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1097,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
@@ -1092,16 +1106,16 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
@@ -1110,33 +1124,33 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1161,12 +1175,12 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1195,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1206,7 +1220,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1215,490 +1229,625 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="C39" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
         <v>18</v>
       </c>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+      <c r="C41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="26"/>
+      <c r="E46" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="26"/>
+      <c r="E54" s="26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="3" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="3" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="26"/>
+      <c r="E58" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="26"/>
+      <c r="E62" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="3" t="s">
+    <row r="73" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
+    <row r="74" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E58" s="1" t="s">
+    <row r="75" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E59" s="1" t="s">
+    <row r="76" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E60" s="1" t="s">
+    <row r="77" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="1" t="s">
+    <row r="78" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E62" s="1" t="s">
+    <row r="79" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E63" s="1" t="s">
+    <row r="80" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E64" s="1" t="s">
+    <row r="81" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E81" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E65" s="1" t="s">
+    <row r="82" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E82" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E66" s="1" t="s">
+    <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E83" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E67" s="1" t="s">
+    <row r="84" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
+    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E85" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
+    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E86" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
+    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
+    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E88" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="s">
+    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
+    <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E90" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="s">
+    <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E91" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="s">
+    <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E92" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="s">
+    <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E93" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="s">
+    <row r="94" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E94" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E79" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E80" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E82" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E83" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E84" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E85" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E86" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E87" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E88" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E89" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E90" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E91" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E92" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E93" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="95" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E95" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E97" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E98" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E99" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E100" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E101" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E102" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E103" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E104" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E105" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E106" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E107" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E108" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E112" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E96" s="1" t="s">
+    <row r="113" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E97" s="1" t="s">
+    <row r="114" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E114" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E98" s="1" t="s">
+    <row r="115" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E115" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E99" s="1" t="s">
+    <row r="116" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E116" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="s">
+    <row r="117" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E117" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E101" s="1" t="s">
+    <row r="118" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E118" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E102" s="1" t="s">
+    <row r="119" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E119" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E103" s="1" t="s">
+    <row r="120" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E120" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E104" s="1" t="s">
+    <row r="121" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E121" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E105" s="1" t="s">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E106" s="1" t="s">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="2" t="s">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="3" t="s">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D110" s="3" t="s">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D111" s="3" t="s">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D112" s="3" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="3" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="3" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="3" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="3" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="3" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="2" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C134">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C149">
         <v>0</v>
       </c>
-      <c r="D134" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C135">
+      <c r="D149" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C150">
         <v>1</v>
       </c>
     </row>
